--- a/public/informes/1727/1727_0_3/1727_0_3_2021_05_27.xlsx
+++ b/public/informes/1727/1727_0_3/1727_0_3_2021_05_27.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="4410"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15810" windowHeight="5820"/>
   </bookViews>
   <sheets>
     <sheet name="MOLDE" sheetId="1" r:id="rId1"/>
@@ -68,22 +68,22 @@
     <t>06/05/2021 Taller</t>
   </si>
   <si>
-    <t>canvi a versio 0/3</t>
-  </si>
-  <si>
     <t>Abrir molde, desmontar y cambiar version entrante 0/3, cambiar toricas, comprobar refrigeracion, engrasar guias y columnas y cerrar molde.-La version 0/3 no esta idenficada, esta compuesta por los punzones  de la 0/1  los vasos de la 0/1 ó 0/2 y los culotes de la 0/1 que son sin registro. Las correderas son las mismas de la version 0/1 ó 0/2.</t>
   </si>
   <si>
     <t>26/05/2021 Taller</t>
   </si>
   <si>
-    <t>Injeccion: Colocar brida de seguretat.</t>
-  </si>
-  <si>
     <t>27/05/2021 Taller</t>
   </si>
   <si>
     <t>fabricar y montar brida de seguridad.</t>
+  </si>
+  <si>
+    <t>V 0/3 - canvi a versio 0/3</t>
+  </si>
+  <si>
+    <t>V 0/3 - Injeccion: Colocar brida de seguretat.</t>
   </si>
 </sst>
 </file>
@@ -333,7 +333,7 @@
         <xdr:cNvPr id="5" name="Imagen 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -636,7 +636,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,10 +711,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>13</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>14</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="8"/>
@@ -722,16 +722,16 @@
     </row>
     <row r="7" spans="1:7" s="9" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="19" t="s">
         <v>16</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>18</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="8"/>
